--- a/data/snippets.xlsx
+++ b/data/snippets.xlsx
@@ -381,6 +381,7 @@
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
@@ -389,44 +390,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Headers</v>
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>date</v>
+      </c>
+      <c r="C1" t="str">
+        <v>title</v>
+      </c>
+      <c r="D1" t="str">
+        <v>text</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>3</v>
+      <c r="D2" t="str">
+        <v>If you're the smartest person in the room, you're in the wrong room.</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>4</v>
+    <row r="3" xml:space="preserve">
+      <c r="D3" t="str" xml:space="preserve">
+        <v xml:space="preserve">Wise men speak because they have something to say._x000d_
+_x000d_
+Stupid men speak because they have to say something. - Plato</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>5</v>
+      <c r="D4" t="str">
+        <v>Education is not the learning of facts, it's rather the training of the mind to think. - Einstein</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>5</v>
+      <c r="D5" t="str">
+        <v>I have no special talents, I am just passionately curious. - Albert Einstein</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D5"/>
   </ignoredErrors>
 </worksheet>
 </file>